--- a/Test Cases By Mansib.xlsx
+++ b/Test Cases By Mansib.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\Mansib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7036DBBC-EF72-451A-8454-BEEE7AB67D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC1F30-699C-4B41-A966-4D2288BB21C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{17219D56-72BD-441D-95A4-13C60CFAC7D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{17219D56-72BD-441D-95A4-13C60CFAC7D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Logout" sheetId="2" r:id="rId2"/>
-    <sheet name="Home" sheetId="3" r:id="rId3"/>
-    <sheet name="Add to Cart" sheetId="4" r:id="rId4"/>
-    <sheet name="WishList" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Display Page" sheetId="6" r:id="rId6"/>
-    <sheet name="CheckOut Page" sheetId="7" r:id="rId7"/>
-    <sheet name="My Account Page" sheetId="8" r:id="rId8"/>
+    <sheet name="Version History" sheetId="9" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Logout" sheetId="2" r:id="rId3"/>
+    <sheet name="Home" sheetId="3" r:id="rId4"/>
+    <sheet name="Add to Cart" sheetId="4" r:id="rId5"/>
+    <sheet name="WishList" sheetId="5" r:id="rId6"/>
+    <sheet name="Product Display Page" sheetId="6" r:id="rId7"/>
+    <sheet name="CheckOut Page" sheetId="7" r:id="rId8"/>
+    <sheet name="My Account Page" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="306">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -272,17 +273,8 @@
     <t>TC_ATC_006</t>
   </si>
   <si>
-    <t>TC_ATC_007</t>
-  </si>
-  <si>
-    <t>TC_ATC_008</t>
-  </si>
-  <si>
     <t>(TS_007)
 Product Display Page</t>
-  </si>
-  <si>
-    <t>TC_ATC_009</t>
   </si>
   <si>
     <t>Validate Product Categories should be displayed in the Home Page</t>
@@ -410,9 +402,6 @@
 Wish List</t>
   </si>
   <si>
-    <t>Validate adding a product to 'Wish List' page from the Product that is displayed in the 'Related Products' section of 'Product Display' page</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open the Application URL and login </t>
   </si>
   <si>
@@ -440,9 +429,6 @@
     <t>TC_WL_006</t>
   </si>
   <si>
-    <t>Validate navigating to 'My Wish List' page using the 'wish list!' link in the success message</t>
-  </si>
-  <si>
     <t>TC_WL_007</t>
   </si>
   <si>
@@ -452,13 +438,6 @@
     <t>TC_WL_008</t>
   </si>
   <si>
-    <t>Validate navigating to 'My Wish List' page using the 'Right Column' header options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL and login
-</t>
-  </si>
-  <si>
     <t>TC_WL_009</t>
   </si>
   <si>
@@ -468,29 +447,16 @@
     <t>TC_WL_010</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate navigating to 'My Wish List' page from the 'Footer' options </t>
-  </si>
-  <si>
     <t>TC_WL_011</t>
   </si>
   <si>
-    <t>Validate the Breadcrumb in the 'Wish List' page</t>
-  </si>
-  <si>
     <t>TC_WL_012</t>
   </si>
   <si>
-    <t>Validate the Page Title, Page URL and Page Heading of 'Wish List' page</t>
-  </si>
-  <si>
     <t>TC_WL_013</t>
   </si>
   <si>
     <t>Validate the 'My Wish List' page when there are no products added</t>
-  </si>
-  <si>
-    <t>1. Open the Application URL and login
-2. No products are added to 'My Wish List' page</t>
   </si>
   <si>
     <t>TC_WL_014</t>
@@ -503,19 +469,7 @@
 2. One product is added to 'My Wish List' page</t>
   </si>
   <si>
-    <t>TC_WL_015</t>
-  </si>
-  <si>
     <t>Validate the removing the Product  from 'My Wish List' page</t>
-  </si>
-  <si>
-    <t>TC_WL_016</t>
-  </si>
-  <si>
-    <t>Validate adding the product to Cart from the 'My Wish List' page</t>
-  </si>
-  <si>
-    <t>TC_WL_017</t>
   </si>
   <si>
     <t>Validate adding the multiple products to the 'My Wish List' page</t>
@@ -525,28 +479,16 @@
 2. Add multiple products to 'My Wish List' page</t>
   </si>
   <si>
-    <t>TC_WL_018</t>
-  </si>
-  <si>
     <t>Validate adding duplicate products to 'My Wish List' page</t>
   </si>
   <si>
-    <t>TC_WL_019</t>
-  </si>
-  <si>
     <t>Validate the UI of 'Wish List' funtionality</t>
   </si>
   <si>
-    <t>TC_WL_020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expected Result </t>
   </si>
   <si>
     <t>TC_PDP_001</t>
-  </si>
-  <si>
-    <t>Validate the Thumbnails of the Product displayed in the Product Display Page</t>
   </si>
   <si>
     <t>TC_PDP_002</t>
@@ -968,13 +910,195 @@
   </si>
   <si>
     <t>Validate the 'Checkout' functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>Project Name (Client Name)</t>
+  </si>
+  <si>
+    <t>Prepared By</t>
+  </si>
+  <si>
+    <t>Yusha</t>
+  </si>
+  <si>
+    <t>Mansib</t>
+  </si>
+  <si>
+    <t>Plush toys</t>
+  </si>
+  <si>
+    <t>1. Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the Product Name displayed in the Search results
+3. Click on 'Add to Wish List' option on a product that is displayed 
+4. Click on the 'wish list!' Icon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scroll down till the 'Our Latest Products' section on the Home page is displayed 
+2. Click on 'Add to Wish List heart Icon' option on a product that is displayed 
+</t>
+  </si>
+  <si>
+    <t>1. User should be taken to Home page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t>1. Scroll down till the 'Product Categories' section on the Home page is displayed. 
+2. Click on any categories that is displayed. 
+3.Click on 'Add to Wish List heart Icon' option on a product that is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed 
+3. Click on the 'wish list! Heart' Icon displayed top right beside cart icon
+</t>
+  </si>
+  <si>
+    <t>Validate navigating to 'My Wish List' page using the 'Left Column' menu options</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed 
+3. Click on the 'Menu Option' displayed top left Under Logo
+4.Click 'My wishlist</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed 
+3. Click on the 'Menu Option' displayed top left Under Logo
+4.Click 'My Account'
+5.Click 'My Wishlist'</t>
+  </si>
+  <si>
+    <t>1. System loads The Home page.
+2. User should be taken to Product page.
+3. Add to wishlist Heart Icon color changed to red as marked
+4. By clicking the Menu on top left nav Display sidebar options
+5.By Clicking 'My account navigates to profile page
+6.navigates to wishlist page.
+7. Product should be successfully displayed in the 'My Wish List' page.</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the 'Wish List' functionality</t>
+  </si>
+  <si>
+    <t>Validate the 'Wish List' functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Check the 'Wish List' functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Check the UI of the functioanality related to 'Wish List'</t>
+  </si>
+  <si>
+    <t>1. 'Wish List' functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field / Click any product from all products
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Wish List' option in the displayed 'Product Display' page
+5. Repeat Step 4
+</t>
+  </si>
+  <si>
+    <t>1. System loads The Home page.
+2. User should be taken to Product page.
+3. Add to wishlist Heart Icon color changed to red as marked
+4. By clicking the wishlist again will remove the product from wishlist.
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Add to Wish List' page on top right nav that is displayed 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. User should be taken to wishlist page displayed  message 'No wishlist is available!' with sad emoji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed 
+3. Click on the 'wish list! Heart' Icon displayed top right beside cart icon
+4. Navigate to My wish list page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed 
+3. Click on the 'wish list! Heart' Icon displayed top right beside cart icon
+4. Navigate to My wish list page
+5. CLick the heart icon displayed on product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field / Click any product from all products
+2. Click on 'Add to Wish List' option on a product that is displayed
+3. Repeat step 2 for multiple times
+4. Click on the 'wish list! Heart' Icon displayed top right beside cart icon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Thumbnails of the Product displayed in the Product Display Page
+</t>
+  </si>
+  <si>
+    <t>1.User should be taken to Category page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t>1. User should be taken to Product page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. By clicking the heart icon on top right nave redirect to wishlist page.
+4. Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t>1.User should be taken to Product page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. By clicking the Menu on top left nav Display sidebar options
+4.By Clicking 'My wishlist navigates to wishlist page
+5. Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t>1. User should be taken to Product page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. By clicking the heart icon on top right nave redirect to wishlist page.
+4. Only a Single Product should be successfully displayed in the 'My Wish List' page</t>
+  </si>
+  <si>
+    <t>1. User should be taken to Product page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. By clicking the heart icon on top right nav redirect to wishlist page.
+4. Product should be successfully displayed in the 'My Wish List' page
+5. By clicking the icon will remove the product from the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User should be taken to Product page.
+2. Add to wishlist Heart Icon color changed to red as marked
+3. By clicking the heart icon on top right nav redirect to wishlist page.
+4. Multiple Product should be successfully displayed in the 'My Wish List' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scroll down till the 'Our Latest Products' section on the Home page is displayed 
+2.
+</t>
+  </si>
+  <si>
+    <t>1. User should be taken to Home page.
+2. Product should be successfully displayed in the section.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,6 +1181,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1096,7 +1239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1141,12 +1284,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1207,17 +1432,64 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,15 +1500,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1244,53 +1515,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1606,6 +1841,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BB553C-C88C-4950-A156-B9B887AE9146}">
+  <dimension ref="C5:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="66.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C5" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C6" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C7" s="28"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C8" s="29"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E4CD7-4770-4717-8FD4-1AFB2D24EBE2}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1755,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25C0BD-2C08-4426-8A88-212753609618}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1903,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613FE520-D496-4FE5-966F-6D1F22709934}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -1964,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>46</v>
@@ -1973,7 +2274,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>15</v>
@@ -1993,16 +2294,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
@@ -2016,16 +2317,16 @@
         <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
@@ -2039,16 +2340,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -2062,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -2085,10 +2386,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>54</v>
@@ -2108,10 +2409,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>54</v>
@@ -2177,12 +2478,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A880648-65F7-4FB7-8B6A-B3F299F6F34C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,16 +2545,16 @@
         <v>64</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2274,13 +2575,13 @@
         <v>62</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -2295,19 +2596,19 @@
         <v>59</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
@@ -2322,19 +2623,19 @@
         <v>59</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -2349,19 +2650,19 @@
         <v>59</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -2376,32 +2677,28 @@
         <v>59</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="F7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>59</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2412,13 +2709,9 @@
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2429,13 +2722,9 @@
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>70</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -2452,12 +2741,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EDBD37-3B8C-49BB-8B11-BBBA72D23E70}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,444 +2763,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="E4" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="B11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="B13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
+      <c r="E14" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5980BF1E-BE4C-4FF8-B6E8-333C3CA090C7}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2928,827 +3253,833 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="D24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="D25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="B26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="D26" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="B27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="D27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="D28" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="B30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="D30" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="D31" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="D32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="D33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="B34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="D34" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D35" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="B36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="D36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="B37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="D37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="B38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="35"/>
-    </row>
-    <row r="35" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="35"/>
-    </row>
-    <row r="36" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="35"/>
+      <c r="D38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC77200-02BE-400F-BDF4-D683FC42DF3F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3766,474 +4097,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="A2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="B12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="D12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="D13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="B15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="D15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="B16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="D16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="49"/>
-    </row>
-    <row r="8" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="B17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="48" t="s">
+      <c r="D17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="49"/>
-    </row>
-    <row r="9" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="B18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="D18" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="49"/>
-    </row>
-    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="48" t="s">
+      <c r="B19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="49"/>
-    </row>
-    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="D19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="B20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="D20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="B21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="48" t="s">
+      <c r="B22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="49"/>
-    </row>
-    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="49"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
-    </row>
-    <row r="21" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="49"/>
+      <c r="D22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4246,7 +4577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9659557-F3A6-424F-8176-35FE521D3599}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -4268,243 +4599,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="A2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
